--- a/jauns_fails2.xlsx
+++ b/jauns_fails2.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -509,9 +508,7 @@
       <c r="F2" t="n">
         <v>3.8756494758357</v>
       </c>
-      <c r="G2" t="n">
-        <v>4.689535865761196</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
     </row>
@@ -538,9 +535,7 @@
       <c r="F3" t="n">
         <v>6.00697770621503</v>
       </c>
-      <c r="G3" t="n">
-        <v>7.268443024520186</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -567,9 +562,7 @@
       <c r="F4" t="n">
         <v>3.360024285628592</v>
       </c>
-      <c r="G4" t="n">
-        <v>4.065629385610596</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -596,9 +589,7 @@
       <c r="F5" t="n">
         <v>9.437935753912893</v>
       </c>
-      <c r="G5" t="n">
-        <v>11.4199022622346</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -625,9 +616,7 @@
       <c r="F6" t="n">
         <v>1.138562693443437</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.377660859066558</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -654,9 +643,7 @@
       <c r="F7" t="n">
         <v>5.6564670228092</v>
       </c>
-      <c r="G7" t="n">
-        <v>6.844325097599132</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -683,9 +670,7 @@
       <c r="F8" t="n">
         <v>7.293874620040071</v>
       </c>
-      <c r="G8" t="n">
-        <v>8.825588290248486</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -712,9 +697,7 @@
       <c r="F9" t="n">
         <v>2.677282792312118</v>
       </c>
-      <c r="G9" t="n">
-        <v>3.239512178697663</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -739,9 +722,7 @@
       <c r="F10" t="n">
         <v>7.0891586183045</v>
       </c>
-      <c r="G10" t="n">
-        <v>8.577881928148445</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -768,9 +749,7 @@
       <c r="F11" t="n">
         <v>9.121266677897546</v>
       </c>
-      <c r="G11" t="n">
-        <v>11.03673268025603</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -797,9 +776,7 @@
       <c r="F12" t="n">
         <v>8.018990959358909</v>
       </c>
-      <c r="G12" t="n">
-        <v>9.70297906082428</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -826,9 +803,7 @@
       <c r="F13" t="n">
         <v>5.438201889380893</v>
       </c>
-      <c r="G13" t="n">
-        <v>6.58022428615088</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -855,9 +830,7 @@
       <c r="F14" t="n">
         <v>5.033886302953434</v>
       </c>
-      <c r="G14" t="n">
-        <v>6.091002426573655</v>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -884,9 +857,7 @@
       <c r="F15" t="n">
         <v>2.954276134372609</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.574674122590856</v>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -913,9 +884,7 @@
       <c r="F16" t="n">
         <v>5.698227408793114</v>
       </c>
-      <c r="G16" t="n">
-        <v>6.894855164639668</v>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -940,9 +909,7 @@
       <c r="F17" t="n">
         <v>8.291035613451101</v>
       </c>
-      <c r="G17" t="n">
-        <v>10.03215309227583</v>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -969,9 +936,7 @@
       <c r="F18" t="n">
         <v>12.36927465884</v>
       </c>
-      <c r="G18" t="n">
-        <v>14.9668223371964</v>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -998,9 +963,7 @@
       <c r="F19" t="n">
         <v>8.547591227207436</v>
       </c>
-      <c r="G19" t="n">
-        <v>10.342585384921</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1027,9 +990,7 @@
       <c r="F20" t="n">
         <v>5.916479766949029</v>
       </c>
-      <c r="G20" t="n">
-        <v>7.158940518008325</v>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1056,9 +1017,7 @@
       <c r="F21" t="n">
         <v>9.9013403143194</v>
       </c>
-      <c r="G21" t="n">
-        <v>11.98062178032647</v>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1085,9 +1044,7 @@
       <c r="F22" t="n">
         <v>7.164745874947526</v>
       </c>
-      <c r="G22" t="n">
-        <v>8.669342508686507</v>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1114,9 +1071,7 @@
       <c r="F23" t="n">
         <v>1.484391928249877</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.796114233182352</v>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1143,9 +1098,7 @@
       <c r="F24" t="n">
         <v>7.740408230871748</v>
       </c>
-      <c r="G24" t="n">
-        <v>9.365893959354814</v>
-      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1172,9 +1125,7 @@
       <c r="F25" t="n">
         <v>6.842818800146445</v>
       </c>
-      <c r="G25" t="n">
-        <v>8.279810748177198</v>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1201,9 +1152,7 @@
       <c r="F26" t="n">
         <v>9.93755190947544</v>
       </c>
-      <c r="G26" t="n">
-        <v>12.02443781046528</v>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1230,9 +1179,7 @@
       <c r="F27" t="n">
         <v>3.987769488047227</v>
       </c>
-      <c r="G27" t="n">
-        <v>4.825201080537144</v>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1259,9 +1206,7 @@
       <c r="F28" t="n">
         <v>2.454937376472412</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.970474225531618</v>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1288,9 +1233,7 @@
       <c r="F29" t="n">
         <v>1.063146702431752</v>
       </c>
-      <c r="G29" t="n">
-        <v>1.28640750994242</v>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1317,9 +1260,7 @@
       <c r="F30" t="n">
         <v>8.897825376649788</v>
       </c>
-      <c r="G30" t="n">
-        <v>10.76636870574624</v>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1346,9 +1287,7 @@
       <c r="F31" t="n">
         <v>3.27466917129673</v>
       </c>
-      <c r="G31" t="n">
-        <v>3.962349697269043</v>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1375,9 +1314,7 @@
       <c r="F32" t="n">
         <v>9.443936603129396</v>
       </c>
-      <c r="G32" t="n">
-        <v>11.42716328978657</v>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1404,9 +1341,7 @@
       <c r="F33" t="n">
         <v>8.809470410888117</v>
       </c>
-      <c r="G33" t="n">
-        <v>10.65945919717462</v>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1433,9 +1368,7 @@
       <c r="F34" t="n">
         <v>9.482402950004767</v>
       </c>
-      <c r="G34" t="n">
-        <v>11.47370756950577</v>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1462,9 +1395,7 @@
       <c r="F35" t="n">
         <v>9.923192115047963</v>
       </c>
-      <c r="G35" t="n">
-        <v>12.00706245920803</v>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1491,9 +1422,7 @@
       <c r="F36" t="n">
         <v>2.96730906838789</v>
       </c>
-      <c r="G36" t="n">
-        <v>3.590443972749347</v>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1520,9 +1449,7 @@
       <c r="F37" t="n">
         <v>5.2138537994778</v>
       </c>
-      <c r="G37" t="n">
-        <v>6.308763097368137</v>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1549,9 +1476,7 @@
       <c r="F38" t="n">
         <v>1.740266934731939</v>
       </c>
-      <c r="G38" t="n">
-        <v>2.105722991025646</v>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1578,9 +1503,7 @@
       <c r="F39" t="n">
         <v>6.525464618082547</v>
       </c>
-      <c r="G39" t="n">
-        <v>7.895812187879882</v>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1607,9 +1530,7 @@
       <c r="F40" t="n">
         <v>9.29152492537186</v>
       </c>
-      <c r="G40" t="n">
-        <v>11.24274515969995</v>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1636,9 +1557,7 @@
       <c r="F41" t="n">
         <v>9.190843378517298</v>
       </c>
-      <c r="G41" t="n">
-        <v>11.12092048800593</v>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1665,9 +1584,7 @@
       <c r="F42" t="n">
         <v>3.813013505356644</v>
       </c>
-      <c r="G42" t="n">
-        <v>4.613746341481539</v>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1694,9 +1611,7 @@
       <c r="F43" t="n">
         <v>1.55817907388744</v>
       </c>
-      <c r="G43" t="n">
-        <v>1.885396679403802</v>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1723,9 +1638,7 @@
       <c r="F44" t="n">
         <v>1.659038561520078</v>
       </c>
-      <c r="G44" t="n">
-        <v>2.007436659439294</v>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1752,9 +1665,7 @@
       <c r="F45" t="n">
         <v>1.609389773863237</v>
       </c>
-      <c r="G45" t="n">
-        <v>1.947361626374516</v>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1781,9 +1692,7 @@
       <c r="F46" t="n">
         <v>9.665207711683228</v>
       </c>
-      <c r="G46" t="n">
-        <v>11.69490133113671</v>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1810,9 +1719,7 @@
       <c r="F47" t="n">
         <v>7.451692341713619</v>
       </c>
-      <c r="G47" t="n">
-        <v>9.016547733473478</v>
-      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -1839,9 +1746,7 @@
       <c r="F48" t="n">
         <v>6.034375100413754</v>
       </c>
-      <c r="G48" t="n">
-        <v>7.301593871500642</v>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -1868,9 +1773,7 @@
       <c r="F49" t="n">
         <v>5.692809360133452</v>
       </c>
-      <c r="G49" t="n">
-        <v>6.888299325761477</v>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -1897,9 +1800,7 @@
       <c r="F50" t="n">
         <v>4.064266447839691</v>
       </c>
-      <c r="G50" t="n">
-        <v>4.917762401886026</v>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -1926,9 +1827,7 @@
       <c r="F51" t="n">
         <v>2.853652535552079</v>
       </c>
-      <c r="G51" t="n">
-        <v>3.452919568018016</v>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -1955,9 +1854,7 @@
       <c r="F52" t="n">
         <v>3.015142398151962</v>
       </c>
-      <c r="G52" t="n">
-        <v>3.648322301763874</v>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -1984,9 +1881,7 @@
       <c r="F53" t="n">
         <v>7.307352174579282</v>
       </c>
-      <c r="G53" t="n">
-        <v>8.841896131240931</v>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2013,9 +1908,7 @@
       <c r="F54" t="n">
         <v>3.01574982395332</v>
       </c>
-      <c r="G54" t="n">
-        <v>3.649057286983517</v>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2042,9 +1935,7 @@
       <c r="F55" t="n">
         <v>1.103584001518164</v>
       </c>
-      <c r="G55" t="n">
-        <v>1.335336641836979</v>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2071,9 +1962,7 @@
       <c r="F56" t="n">
         <v>7.437719839383452</v>
       </c>
-      <c r="G56" t="n">
-        <v>8.999641005653977</v>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2100,9 +1989,7 @@
       <c r="F57" t="n">
         <v>2.957738620064409</v>
       </c>
-      <c r="G57" t="n">
-        <v>3.578863730277934</v>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2129,9 +2016,7 @@
       <c r="F58" t="n">
         <v>2.98669407025139</v>
       </c>
-      <c r="G58" t="n">
-        <v>3.613899825004182</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2158,9 +2043,7 @@
       <c r="F59" t="n">
         <v>6.775906763864698</v>
       </c>
-      <c r="G59" t="n">
-        <v>8.198847184276284</v>
-      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2187,9 +2070,7 @@
       <c r="F60" t="n">
         <v>3.724181798160204</v>
       </c>
-      <c r="G60" t="n">
-        <v>4.506259975773848</v>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2216,9 +2097,7 @@
       <c r="F61" t="n">
         <v>7.139531592337086</v>
       </c>
-      <c r="G61" t="n">
-        <v>8.638833226727874</v>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2243,9 +2122,7 @@
       <c r="F62" t="n">
         <v>9.776137817538096</v>
       </c>
-      <c r="G62" t="n">
-        <v>11.8291267592211</v>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2272,9 +2149,7 @@
       <c r="F63" t="n">
         <v>1.131452113930301</v>
       </c>
-      <c r="G63" t="n">
-        <v>1.369057057855664</v>
-      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2301,9 +2176,7 @@
       <c r="F64" t="n">
         <v>5.847067578119493</v>
       </c>
-      <c r="G64" t="n">
-        <v>7.074951769524586</v>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2330,9 +2203,7 @@
       <c r="F65" t="n">
         <v>7.461197892427045</v>
       </c>
-      <c r="G65" t="n">
-        <v>9.028049449836724</v>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2359,9 +2230,7 @@
       <c r="F66" t="n">
         <v>3.40308451570014</v>
       </c>
-      <c r="G66" t="n">
-        <v>4.117732263997169</v>
-      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2388,9 +2257,7 @@
       <c r="F67" t="n">
         <v>2.391261244148905</v>
       </c>
-      <c r="G67" t="n">
-        <v>2.893426105420175</v>
-      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2417,9 +2284,7 @@
       <c r="F68" t="n">
         <v>2.007916960245257</v>
       </c>
-      <c r="G68" t="n">
-        <v>2.429579521896761</v>
-      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2446,9 +2311,7 @@
       <c r="F69" t="n">
         <v>9.014850642196237</v>
       </c>
-      <c r="G69" t="n">
-        <v>10.90796927705745</v>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2475,9 +2338,7 @@
       <c r="F70" t="n">
         <v>4.51165019210343</v>
       </c>
-      <c r="G70" t="n">
-        <v>5.45909673244515</v>
-      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2504,9 +2365,7 @@
       <c r="F71" t="n">
         <v>6.287236989987731</v>
       </c>
-      <c r="G71" t="n">
-        <v>7.607556757885154</v>
-      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2533,9 +2392,7 @@
       <c r="F72" t="n">
         <v>1.21585693637547</v>
       </c>
-      <c r="G72" t="n">
-        <v>1.471186893014319</v>
-      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2562,9 +2419,7 @@
       <c r="F73" t="n">
         <v>3.414860951466943</v>
       </c>
-      <c r="G73" t="n">
-        <v>4.131981751275</v>
-      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2591,9 +2446,7 @@
       <c r="F74" t="n">
         <v>0.7540915872655884</v>
       </c>
-      <c r="G74" t="n">
-        <v>0.912450820591362</v>
-      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2620,9 +2473,7 @@
       <c r="F75" t="n">
         <v>6.332895429483235</v>
       </c>
-      <c r="G75" t="n">
-        <v>7.662803469674714</v>
-      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2649,9 +2500,7 @@
       <c r="F76" t="n">
         <v>9.891096174614626</v>
       </c>
-      <c r="G76" t="n">
-        <v>11.9682263712837</v>
-      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2678,9 +2527,7 @@
       <c r="F77" t="n">
         <v>9.727727666198824</v>
       </c>
-      <c r="G77" t="n">
-        <v>11.77055047610058</v>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -2707,9 +2554,7 @@
       <c r="F78" t="n">
         <v>1.407201818847091</v>
       </c>
-      <c r="G78" t="n">
-        <v>1.70271420080498</v>
-      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -2736,9 +2581,7 @@
       <c r="F79" t="n">
         <v>9.0532131205113</v>
       </c>
-      <c r="G79" t="n">
-        <v>10.95438787581867</v>
-      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -2765,9 +2608,7 @@
       <c r="F80" t="n">
         <v>2.830800951669011</v>
       </c>
-      <c r="G80" t="n">
-        <v>3.425269151519503</v>
-      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -2794,9 +2635,7 @@
       <c r="F81" t="n">
         <v>5.81222779375704</v>
       </c>
-      <c r="G81" t="n">
-        <v>7.032795630446018</v>
-      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -2823,9 +2662,7 @@
       <c r="F82" t="n">
         <v>2.997846863207374</v>
       </c>
-      <c r="G82" t="n">
-        <v>3.627394704480922</v>
-      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -2852,9 +2689,7 @@
       <c r="F83" t="n">
         <v>9.109663898577061</v>
       </c>
-      <c r="G83" t="n">
-        <v>11.02269331727824</v>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -2881,9 +2716,7 @@
       <c r="F84" t="n">
         <v>6.996779940882228</v>
       </c>
-      <c r="G84" t="n">
-        <v>8.466103728467496</v>
-      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -2910,9 +2743,7 @@
       <c r="F85" t="n">
         <v>4.65062049238104</v>
       </c>
-      <c r="G85" t="n">
-        <v>5.627250795781058</v>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -2939,9 +2770,7 @@
       <c r="F86" t="n">
         <v>3.248022543873005</v>
       </c>
-      <c r="G86" t="n">
-        <v>3.930107278086336</v>
-      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -2968,9 +2797,7 @@
       <c r="F87" t="n">
         <v>1.683210805710946</v>
       </c>
-      <c r="G87" t="n">
-        <v>2.036685074910245</v>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -2997,9 +2824,7 @@
       <c r="F88" t="n">
         <v>3.104338770052462</v>
       </c>
-      <c r="G88" t="n">
-        <v>3.756249911763478</v>
-      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3026,9 +2851,7 @@
       <c r="F89" t="n">
         <v>7.572277344371817</v>
       </c>
-      <c r="G89" t="n">
-        <v>9.162455586689898</v>
-      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3055,9 +2878,7 @@
       <c r="F90" t="n">
         <v>8.381653671144427</v>
       </c>
-      <c r="G90" t="n">
-        <v>10.14180094208476</v>
-      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3084,9 +2905,7 @@
       <c r="F91" t="n">
         <v>5.985601195071611</v>
       </c>
-      <c r="G91" t="n">
-        <v>7.242577446036649</v>
-      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3113,9 +2932,7 @@
       <c r="F92" t="n">
         <v>1.660851658657804</v>
       </c>
-      <c r="G92" t="n">
-        <v>2.009630506975943</v>
-      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3142,9 +2959,7 @@
       <c r="F93" t="n">
         <v>2.22545513623472</v>
       </c>
-      <c r="G93" t="n">
-        <v>2.692800714844011</v>
-      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3171,9 +2986,7 @@
       <c r="F94" t="n">
         <v>5.239994714522227</v>
       </c>
-      <c r="G94" t="n">
-        <v>6.340393604571895</v>
-      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3198,9 +3011,7 @@
       <c r="F95" t="n">
         <v>2.021288383814327</v>
       </c>
-      <c r="G95" t="n">
-        <v>2.445758944415336</v>
-      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3227,9 +3038,7 @@
       <c r="F96" t="n">
         <v>3.83988941214463</v>
       </c>
-      <c r="G96" t="n">
-        <v>4.646266188695003</v>
-      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3256,9 +3065,7 @@
       <c r="F97" t="n">
         <v>4.965746194166297</v>
       </c>
-      <c r="G97" t="n">
-        <v>6.008552894941219</v>
-      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3285,9 +3092,7 @@
       <c r="F98" t="n">
         <v>6.89619906184212</v>
       </c>
-      <c r="G98" t="n">
-        <v>8.344400864828964</v>
-      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3380,9 +3185,7 @@
       <c r="F2" t="n">
         <v>3.8756494758357</v>
       </c>
-      <c r="G2" t="n">
-        <v>4.689535865761196</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
     </row>
@@ -3409,9 +3212,7 @@
       <c r="F3" t="n">
         <v>6.00697770621503</v>
       </c>
-      <c r="G3" t="n">
-        <v>7.268443024520186</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -3438,9 +3239,7 @@
       <c r="F4" t="n">
         <v>3.360024285628592</v>
       </c>
-      <c r="G4" t="n">
-        <v>4.065629385610596</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -3467,9 +3266,7 @@
       <c r="F5" t="n">
         <v>9.437935753912893</v>
       </c>
-      <c r="G5" t="n">
-        <v>11.4199022622346</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -3496,9 +3293,7 @@
       <c r="F6" t="n">
         <v>1.138562693443437</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.377660859066558</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -3525,9 +3320,7 @@
       <c r="F7" t="n">
         <v>5.6564670228092</v>
       </c>
-      <c r="G7" t="n">
-        <v>6.844325097599132</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -3554,9 +3347,7 @@
       <c r="F8" t="n">
         <v>7.293874620040071</v>
       </c>
-      <c r="G8" t="n">
-        <v>8.825588290248486</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -3583,9 +3374,7 @@
       <c r="F9" t="n">
         <v>2.677282792312118</v>
       </c>
-      <c r="G9" t="n">
-        <v>3.239512178697663</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -3610,9 +3399,7 @@
       <c r="F10" t="n">
         <v>7.0891586183045</v>
       </c>
-      <c r="G10" t="n">
-        <v>8.577881928148445</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -3639,9 +3426,7 @@
       <c r="F11" t="n">
         <v>9.121266677897546</v>
       </c>
-      <c r="G11" t="n">
-        <v>11.03673268025603</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -3668,9 +3453,7 @@
       <c r="F12" t="n">
         <v>8.018990959358909</v>
       </c>
-      <c r="G12" t="n">
-        <v>9.70297906082428</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -3697,9 +3480,7 @@
       <c r="F13" t="n">
         <v>5.438201889380893</v>
       </c>
-      <c r="G13" t="n">
-        <v>6.58022428615088</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -3726,9 +3507,7 @@
       <c r="F14" t="n">
         <v>5.033886302953434</v>
       </c>
-      <c r="G14" t="n">
-        <v>6.091002426573655</v>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -3755,9 +3534,7 @@
       <c r="F15" t="n">
         <v>2.954276134372609</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.574674122590856</v>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -3784,9 +3561,7 @@
       <c r="F16" t="n">
         <v>5.698227408793114</v>
       </c>
-      <c r="G16" t="n">
-        <v>6.894855164639668</v>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -3811,9 +3586,7 @@
       <c r="F17" t="n">
         <v>8.291035613451101</v>
       </c>
-      <c r="G17" t="n">
-        <v>10.03215309227583</v>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -3840,9 +3613,7 @@
       <c r="F18" t="n">
         <v>12.36927465884</v>
       </c>
-      <c r="G18" t="n">
-        <v>14.9668223371964</v>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -3869,9 +3640,7 @@
       <c r="F19" t="n">
         <v>8.547591227207436</v>
       </c>
-      <c r="G19" t="n">
-        <v>10.342585384921</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -3898,9 +3667,7 @@
       <c r="F20" t="n">
         <v>5.916479766949029</v>
       </c>
-      <c r="G20" t="n">
-        <v>7.158940518008325</v>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -3927,9 +3694,7 @@
       <c r="F21" t="n">
         <v>9.9013403143194</v>
       </c>
-      <c r="G21" t="n">
-        <v>11.98062178032647</v>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -3956,9 +3721,7 @@
       <c r="F22" t="n">
         <v>7.164745874947526</v>
       </c>
-      <c r="G22" t="n">
-        <v>8.669342508686507</v>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -3985,9 +3748,7 @@
       <c r="F23" t="n">
         <v>1.484391928249877</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.796114233182352</v>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -4014,9 +3775,7 @@
       <c r="F24" t="n">
         <v>7.740408230871748</v>
       </c>
-      <c r="G24" t="n">
-        <v>9.365893959354814</v>
-      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -4043,9 +3802,7 @@
       <c r="F25" t="n">
         <v>6.842818800146445</v>
       </c>
-      <c r="G25" t="n">
-        <v>8.279810748177198</v>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -4072,9 +3829,7 @@
       <c r="F26" t="n">
         <v>9.93755190947544</v>
       </c>
-      <c r="G26" t="n">
-        <v>12.02443781046528</v>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -4101,9 +3856,7 @@
       <c r="F27" t="n">
         <v>3.987769488047227</v>
       </c>
-      <c r="G27" t="n">
-        <v>4.825201080537144</v>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -4130,9 +3883,7 @@
       <c r="F28" t="n">
         <v>2.454937376472412</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.970474225531618</v>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -4159,9 +3910,7 @@
       <c r="F29" t="n">
         <v>1.063146702431752</v>
       </c>
-      <c r="G29" t="n">
-        <v>1.28640750994242</v>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -4188,9 +3937,7 @@
       <c r="F30" t="n">
         <v>8.897825376649788</v>
       </c>
-      <c r="G30" t="n">
-        <v>10.76636870574624</v>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -4217,9 +3964,7 @@
       <c r="F31" t="n">
         <v>3.27466917129673</v>
       </c>
-      <c r="G31" t="n">
-        <v>3.962349697269043</v>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -4246,9 +3991,7 @@
       <c r="F32" t="n">
         <v>9.443936603129396</v>
       </c>
-      <c r="G32" t="n">
-        <v>11.42716328978657</v>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -4275,9 +4018,7 @@
       <c r="F33" t="n">
         <v>8.809470410888117</v>
       </c>
-      <c r="G33" t="n">
-        <v>10.65945919717462</v>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -4304,9 +4045,7 @@
       <c r="F34" t="n">
         <v>9.482402950004767</v>
       </c>
-      <c r="G34" t="n">
-        <v>11.47370756950577</v>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -4333,9 +4072,7 @@
       <c r="F35" t="n">
         <v>9.923192115047963</v>
       </c>
-      <c r="G35" t="n">
-        <v>12.00706245920803</v>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -4362,9 +4099,7 @@
       <c r="F36" t="n">
         <v>2.96730906838789</v>
       </c>
-      <c r="G36" t="n">
-        <v>3.590443972749347</v>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -4391,9 +4126,7 @@
       <c r="F37" t="n">
         <v>5.2138537994778</v>
       </c>
-      <c r="G37" t="n">
-        <v>6.308763097368137</v>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -4420,9 +4153,7 @@
       <c r="F38" t="n">
         <v>1.740266934731939</v>
       </c>
-      <c r="G38" t="n">
-        <v>2.105722991025646</v>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -4449,9 +4180,7 @@
       <c r="F39" t="n">
         <v>6.525464618082547</v>
       </c>
-      <c r="G39" t="n">
-        <v>7.895812187879882</v>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -4478,9 +4207,7 @@
       <c r="F40" t="n">
         <v>9.29152492537186</v>
       </c>
-      <c r="G40" t="n">
-        <v>11.24274515969995</v>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -4507,9 +4234,7 @@
       <c r="F41" t="n">
         <v>9.190843378517298</v>
       </c>
-      <c r="G41" t="n">
-        <v>11.12092048800593</v>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -4536,9 +4261,7 @@
       <c r="F42" t="n">
         <v>3.813013505356644</v>
       </c>
-      <c r="G42" t="n">
-        <v>4.613746341481539</v>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -4565,9 +4288,7 @@
       <c r="F43" t="n">
         <v>1.55817907388744</v>
       </c>
-      <c r="G43" t="n">
-        <v>1.885396679403802</v>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -4594,9 +4315,7 @@
       <c r="F44" t="n">
         <v>1.659038561520078</v>
       </c>
-      <c r="G44" t="n">
-        <v>2.007436659439294</v>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -4623,9 +4342,7 @@
       <c r="F45" t="n">
         <v>1.609389773863237</v>
       </c>
-      <c r="G45" t="n">
-        <v>1.947361626374516</v>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -4652,9 +4369,7 @@
       <c r="F46" t="n">
         <v>9.665207711683228</v>
       </c>
-      <c r="G46" t="n">
-        <v>11.69490133113671</v>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -4681,9 +4396,7 @@
       <c r="F47" t="n">
         <v>7.451692341713619</v>
       </c>
-      <c r="G47" t="n">
-        <v>9.016547733473478</v>
-      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -4710,9 +4423,7 @@
       <c r="F48" t="n">
         <v>6.034375100413754</v>
       </c>
-      <c r="G48" t="n">
-        <v>7.301593871500642</v>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -4739,9 +4450,7 @@
       <c r="F49" t="n">
         <v>5.692809360133452</v>
       </c>
-      <c r="G49" t="n">
-        <v>6.888299325761477</v>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -4768,9 +4477,7 @@
       <c r="F50" t="n">
         <v>4.064266447839691</v>
       </c>
-      <c r="G50" t="n">
-        <v>4.917762401886026</v>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -4797,9 +4504,7 @@
       <c r="F51" t="n">
         <v>2.853652535552079</v>
       </c>
-      <c r="G51" t="n">
-        <v>3.452919568018016</v>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -4826,9 +4531,7 @@
       <c r="F52" t="n">
         <v>3.015142398151962</v>
       </c>
-      <c r="G52" t="n">
-        <v>3.648322301763874</v>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -4855,9 +4558,7 @@
       <c r="F53" t="n">
         <v>7.307352174579282</v>
       </c>
-      <c r="G53" t="n">
-        <v>8.841896131240931</v>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -4884,9 +4585,7 @@
       <c r="F54" t="n">
         <v>3.01574982395332</v>
       </c>
-      <c r="G54" t="n">
-        <v>3.649057286983517</v>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -4913,9 +4612,7 @@
       <c r="F55" t="n">
         <v>1.103584001518164</v>
       </c>
-      <c r="G55" t="n">
-        <v>1.335336641836979</v>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -4942,9 +4639,7 @@
       <c r="F56" t="n">
         <v>7.437719839383452</v>
       </c>
-      <c r="G56" t="n">
-        <v>8.999641005653977</v>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -4971,9 +4666,7 @@
       <c r="F57" t="n">
         <v>2.957738620064409</v>
       </c>
-      <c r="G57" t="n">
-        <v>3.578863730277934</v>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -5000,9 +4693,7 @@
       <c r="F58" t="n">
         <v>2.98669407025139</v>
       </c>
-      <c r="G58" t="n">
-        <v>3.613899825004182</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -5029,9 +4720,7 @@
       <c r="F59" t="n">
         <v>6.775906763864698</v>
       </c>
-      <c r="G59" t="n">
-        <v>8.198847184276284</v>
-      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -5058,9 +4747,7 @@
       <c r="F60" t="n">
         <v>3.724181798160204</v>
       </c>
-      <c r="G60" t="n">
-        <v>4.506259975773848</v>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -5087,9 +4774,7 @@
       <c r="F61" t="n">
         <v>7.139531592337086</v>
       </c>
-      <c r="G61" t="n">
-        <v>8.638833226727874</v>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -5114,9 +4799,7 @@
       <c r="F62" t="n">
         <v>9.776137817538096</v>
       </c>
-      <c r="G62" t="n">
-        <v>11.8291267592211</v>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -5143,9 +4826,7 @@
       <c r="F63" t="n">
         <v>1.131452113930301</v>
       </c>
-      <c r="G63" t="n">
-        <v>1.369057057855664</v>
-      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -5172,9 +4853,7 @@
       <c r="F64" t="n">
         <v>5.847067578119493</v>
       </c>
-      <c r="G64" t="n">
-        <v>7.074951769524586</v>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -5201,9 +4880,7 @@
       <c r="F65" t="n">
         <v>7.461197892427045</v>
       </c>
-      <c r="G65" t="n">
-        <v>9.028049449836724</v>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -5230,9 +4907,7 @@
       <c r="F66" t="n">
         <v>3.40308451570014</v>
       </c>
-      <c r="G66" t="n">
-        <v>4.117732263997169</v>
-      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -5259,9 +4934,7 @@
       <c r="F67" t="n">
         <v>2.391261244148905</v>
       </c>
-      <c r="G67" t="n">
-        <v>2.893426105420175</v>
-      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -5288,9 +4961,7 @@
       <c r="F68" t="n">
         <v>2.007916960245257</v>
       </c>
-      <c r="G68" t="n">
-        <v>2.429579521896761</v>
-      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -5317,9 +4988,7 @@
       <c r="F69" t="n">
         <v>9.014850642196237</v>
       </c>
-      <c r="G69" t="n">
-        <v>10.90796927705745</v>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -5346,9 +5015,7 @@
       <c r="F70" t="n">
         <v>4.51165019210343</v>
       </c>
-      <c r="G70" t="n">
-        <v>5.45909673244515</v>
-      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -5375,9 +5042,7 @@
       <c r="F71" t="n">
         <v>6.287236989987731</v>
       </c>
-      <c r="G71" t="n">
-        <v>7.607556757885154</v>
-      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -5404,9 +5069,7 @@
       <c r="F72" t="n">
         <v>1.21585693637547</v>
       </c>
-      <c r="G72" t="n">
-        <v>1.471186893014319</v>
-      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -5433,9 +5096,7 @@
       <c r="F73" t="n">
         <v>3.414860951466943</v>
       </c>
-      <c r="G73" t="n">
-        <v>4.131981751275</v>
-      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -5462,9 +5123,7 @@
       <c r="F74" t="n">
         <v>0.7540915872655884</v>
       </c>
-      <c r="G74" t="n">
-        <v>0.912450820591362</v>
-      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -5491,9 +5150,7 @@
       <c r="F75" t="n">
         <v>6.332895429483235</v>
       </c>
-      <c r="G75" t="n">
-        <v>7.662803469674714</v>
-      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -5520,9 +5177,7 @@
       <c r="F76" t="n">
         <v>9.891096174614626</v>
       </c>
-      <c r="G76" t="n">
-        <v>11.9682263712837</v>
-      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -5549,9 +5204,7 @@
       <c r="F77" t="n">
         <v>9.727727666198824</v>
       </c>
-      <c r="G77" t="n">
-        <v>11.77055047610058</v>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -5578,9 +5231,7 @@
       <c r="F78" t="n">
         <v>1.407201818847091</v>
       </c>
-      <c r="G78" t="n">
-        <v>1.70271420080498</v>
-      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -5607,9 +5258,7 @@
       <c r="F79" t="n">
         <v>9.0532131205113</v>
       </c>
-      <c r="G79" t="n">
-        <v>10.95438787581867</v>
-      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -5636,9 +5285,7 @@
       <c r="F80" t="n">
         <v>2.830800951669011</v>
       </c>
-      <c r="G80" t="n">
-        <v>3.425269151519503</v>
-      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -5665,9 +5312,7 @@
       <c r="F81" t="n">
         <v>5.81222779375704</v>
       </c>
-      <c r="G81" t="n">
-        <v>7.032795630446018</v>
-      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -5694,9 +5339,7 @@
       <c r="F82" t="n">
         <v>2.997846863207374</v>
       </c>
-      <c r="G82" t="n">
-        <v>3.627394704480922</v>
-      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -5723,9 +5366,7 @@
       <c r="F83" t="n">
         <v>9.109663898577061</v>
       </c>
-      <c r="G83" t="n">
-        <v>11.02269331727824</v>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -5752,9 +5393,7 @@
       <c r="F84" t="n">
         <v>6.996779940882228</v>
       </c>
-      <c r="G84" t="n">
-        <v>8.466103728467496</v>
-      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -5781,9 +5420,7 @@
       <c r="F85" t="n">
         <v>4.65062049238104</v>
       </c>
-      <c r="G85" t="n">
-        <v>5.627250795781058</v>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -5810,9 +5447,7 @@
       <c r="F86" t="n">
         <v>3.248022543873005</v>
       </c>
-      <c r="G86" t="n">
-        <v>3.930107278086336</v>
-      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -5839,9 +5474,7 @@
       <c r="F87" t="n">
         <v>1.683210805710946</v>
       </c>
-      <c r="G87" t="n">
-        <v>2.036685074910245</v>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -5868,9 +5501,7 @@
       <c r="F88" t="n">
         <v>3.104338770052462</v>
       </c>
-      <c r="G88" t="n">
-        <v>3.756249911763478</v>
-      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -5897,9 +5528,7 @@
       <c r="F89" t="n">
         <v>7.572277344371817</v>
       </c>
-      <c r="G89" t="n">
-        <v>9.162455586689898</v>
-      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -5926,9 +5555,7 @@
       <c r="F90" t="n">
         <v>8.381653671144427</v>
       </c>
-      <c r="G90" t="n">
-        <v>10.14180094208476</v>
-      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -5955,9 +5582,7 @@
       <c r="F91" t="n">
         <v>5.985601195071611</v>
       </c>
-      <c r="G91" t="n">
-        <v>7.242577446036649</v>
-      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -5984,9 +5609,7 @@
       <c r="F92" t="n">
         <v>1.660851658657804</v>
       </c>
-      <c r="G92" t="n">
-        <v>2.009630506975943</v>
-      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -6013,9 +5636,7 @@
       <c r="F93" t="n">
         <v>2.22545513623472</v>
       </c>
-      <c r="G93" t="n">
-        <v>2.692800714844011</v>
-      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -6042,9 +5663,7 @@
       <c r="F94" t="n">
         <v>5.239994714522227</v>
       </c>
-      <c r="G94" t="n">
-        <v>6.340393604571895</v>
-      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -6069,9 +5688,7 @@
       <c r="F95" t="n">
         <v>2.021288383814327</v>
       </c>
-      <c r="G95" t="n">
-        <v>2.445758944415336</v>
-      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -6098,9 +5715,7 @@
       <c r="F96" t="n">
         <v>3.83988941214463</v>
       </c>
-      <c r="G96" t="n">
-        <v>4.646266188695003</v>
-      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -6127,9 +5742,7 @@
       <c r="F97" t="n">
         <v>4.965746194166297</v>
       </c>
-      <c r="G97" t="n">
-        <v>6.008552894941219</v>
-      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -6156,9 +5769,7 @@
       <c r="F98" t="n">
         <v>6.89619906184212</v>
       </c>
-      <c r="G98" t="n">
-        <v>8.344400864828964</v>
-      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -6172,409 +5783,10 @@
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>636.4352283254818</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Datums2</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Skaits</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44076</v>
-      </c>
-      <c r="B2" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>44077</v>
-      </c>
-      <c r="B3" t="n">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>44078</v>
-      </c>
-      <c r="B4" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>44079</v>
-      </c>
-      <c r="B5" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>44081</v>
-      </c>
-      <c r="B6" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>44082</v>
-      </c>
-      <c r="B7" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>44083</v>
-      </c>
-      <c r="B8" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>44084</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44085</v>
-      </c>
-      <c r="B10" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>44086</v>
-      </c>
-      <c r="B11" t="n">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44088</v>
-      </c>
-      <c r="B12" t="n">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>44089</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44090</v>
-      </c>
-      <c r="B14" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>44091</v>
-      </c>
-      <c r="B15" t="n">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>44092</v>
-      </c>
-      <c r="B16" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>44093</v>
-      </c>
-      <c r="B17" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>44094</v>
-      </c>
-      <c r="B18" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B19" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>44096</v>
-      </c>
-      <c r="B20" t="n">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>44097</v>
-      </c>
-      <c r="B21" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>44100</v>
-      </c>
-      <c r="B22" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>44102</v>
-      </c>
-      <c r="B23" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>44103</v>
-      </c>
-      <c r="B24" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>44104</v>
-      </c>
-      <c r="B25" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>44105</v>
-      </c>
-      <c r="B26" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>44108</v>
-      </c>
-      <c r="B27" t="n">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>44109</v>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>44110</v>
-      </c>
-      <c r="B29" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>44111</v>
-      </c>
-      <c r="B30" t="n">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>44112</v>
-      </c>
-      <c r="B31" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>44116</v>
-      </c>
-      <c r="B32" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>44117</v>
-      </c>
-      <c r="B33" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44118</v>
-      </c>
-      <c r="B34" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44120</v>
-      </c>
-      <c r="B35" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44121</v>
-      </c>
-      <c r="B36" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44122</v>
-      </c>
-      <c r="B37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44123</v>
-      </c>
-      <c r="B38" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>44124</v>
-      </c>
-      <c r="B39" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>44125</v>
-      </c>
-      <c r="B40" t="n">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>44126</v>
-      </c>
-      <c r="B41" t="n">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>44127</v>
-      </c>
-      <c r="B42" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>44128</v>
-      </c>
-      <c r="B43" t="n">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>44129</v>
-      </c>
-      <c r="B44" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>44130</v>
-      </c>
-      <c r="B45" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44132</v>
-      </c>
-      <c r="B46" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>44133</v>
-      </c>
-      <c r="B47" t="n">
-        <v>116</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jauns_fails2.xlsx
+++ b/jauns_fails2.xlsx
@@ -508,7 +508,9 @@
       <c r="F2" t="n">
         <v>3.8756494758357</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>4.689535865761196</v>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
     </row>
@@ -535,7 +537,9 @@
       <c r="F3" t="n">
         <v>6.00697770621503</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>7.268443024520186</v>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -562,7 +566,9 @@
       <c r="F4" t="n">
         <v>3.360024285628592</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>4.065629385610596</v>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -589,7 +595,9 @@
       <c r="F5" t="n">
         <v>9.437935753912893</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>11.4199022622346</v>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -616,7 +624,9 @@
       <c r="F6" t="n">
         <v>1.138562693443437</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1.377660859066558</v>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -643,7 +653,9 @@
       <c r="F7" t="n">
         <v>5.6564670228092</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>6.844325097599132</v>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -670,7 +682,9 @@
       <c r="F8" t="n">
         <v>7.293874620040071</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>8.825588290248486</v>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -697,7 +711,9 @@
       <c r="F9" t="n">
         <v>2.677282792312118</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>3.239512178697663</v>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -722,7 +738,9 @@
       <c r="F10" t="n">
         <v>7.0891586183045</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>8.577881928148445</v>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -749,7 +767,9 @@
       <c r="F11" t="n">
         <v>9.121266677897546</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>11.03673268025603</v>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -776,7 +796,9 @@
       <c r="F12" t="n">
         <v>8.018990959358909</v>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>9.70297906082428</v>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -803,7 +825,9 @@
       <c r="F13" t="n">
         <v>5.438201889380893</v>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>6.58022428615088</v>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -830,7 +854,9 @@
       <c r="F14" t="n">
         <v>5.033886302953434</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>6.091002426573655</v>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -857,7 +883,9 @@
       <c r="F15" t="n">
         <v>2.954276134372609</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>3.574674122590856</v>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -884,7 +912,9 @@
       <c r="F16" t="n">
         <v>5.698227408793114</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>6.894855164639668</v>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -909,7 +939,9 @@
       <c r="F17" t="n">
         <v>8.291035613451101</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>10.03215309227583</v>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -936,7 +968,9 @@
       <c r="F18" t="n">
         <v>12.36927465884</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>14.9668223371964</v>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -963,7 +997,9 @@
       <c r="F19" t="n">
         <v>8.547591227207436</v>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>10.342585384921</v>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -990,7 +1026,9 @@
       <c r="F20" t="n">
         <v>5.916479766949029</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>7.158940518008325</v>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1017,7 +1055,9 @@
       <c r="F21" t="n">
         <v>9.9013403143194</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>11.98062178032647</v>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1044,7 +1084,9 @@
       <c r="F22" t="n">
         <v>7.164745874947526</v>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>8.669342508686507</v>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1071,7 +1113,9 @@
       <c r="F23" t="n">
         <v>1.484391928249877</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>1.796114233182352</v>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1098,7 +1142,9 @@
       <c r="F24" t="n">
         <v>7.740408230871748</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>9.365893959354814</v>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1125,7 +1171,9 @@
       <c r="F25" t="n">
         <v>6.842818800146445</v>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>8.279810748177198</v>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1152,7 +1200,9 @@
       <c r="F26" t="n">
         <v>9.93755190947544</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>12.02443781046528</v>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1179,7 +1229,9 @@
       <c r="F27" t="n">
         <v>3.987769488047227</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>4.825201080537144</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1206,7 +1258,9 @@
       <c r="F28" t="n">
         <v>2.454937376472412</v>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>2.970474225531618</v>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1233,7 +1287,9 @@
       <c r="F29" t="n">
         <v>1.063146702431752</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>1.28640750994242</v>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1260,7 +1316,9 @@
       <c r="F30" t="n">
         <v>8.897825376649788</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>10.76636870574624</v>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1287,7 +1345,9 @@
       <c r="F31" t="n">
         <v>3.27466917129673</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>3.962349697269043</v>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1314,7 +1374,9 @@
       <c r="F32" t="n">
         <v>9.443936603129396</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>11.42716328978657</v>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1341,7 +1403,9 @@
       <c r="F33" t="n">
         <v>8.809470410888117</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>10.65945919717462</v>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1368,7 +1432,9 @@
       <c r="F34" t="n">
         <v>9.482402950004767</v>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>11.47370756950577</v>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1395,7 +1461,9 @@
       <c r="F35" t="n">
         <v>9.923192115047963</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>12.00706245920803</v>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1422,7 +1490,9 @@
       <c r="F36" t="n">
         <v>2.96730906838789</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>3.590443972749347</v>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1449,7 +1519,9 @@
       <c r="F37" t="n">
         <v>5.2138537994778</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>6.308763097368137</v>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1476,7 +1548,9 @@
       <c r="F38" t="n">
         <v>1.740266934731939</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>2.105722991025646</v>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1503,7 +1577,9 @@
       <c r="F39" t="n">
         <v>6.525464618082547</v>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>7.895812187879882</v>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1530,7 +1606,9 @@
       <c r="F40" t="n">
         <v>9.29152492537186</v>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>11.24274515969995</v>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1557,7 +1635,9 @@
       <c r="F41" t="n">
         <v>9.190843378517298</v>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>11.12092048800593</v>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1584,7 +1664,9 @@
       <c r="F42" t="n">
         <v>3.813013505356644</v>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>4.613746341481539</v>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1611,7 +1693,9 @@
       <c r="F43" t="n">
         <v>1.55817907388744</v>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>1.885396679403802</v>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1638,7 +1722,9 @@
       <c r="F44" t="n">
         <v>1.659038561520078</v>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>2.007436659439294</v>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1665,7 +1751,9 @@
       <c r="F45" t="n">
         <v>1.609389773863237</v>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>1.947361626374516</v>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1692,7 +1780,9 @@
       <c r="F46" t="n">
         <v>9.665207711683228</v>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>11.69490133113671</v>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1719,7 +1809,9 @@
       <c r="F47" t="n">
         <v>7.451692341713619</v>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>9.016547733473478</v>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -1746,7 +1838,9 @@
       <c r="F48" t="n">
         <v>6.034375100413754</v>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>7.301593871500642</v>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -1773,7 +1867,9 @@
       <c r="F49" t="n">
         <v>5.692809360133452</v>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>6.888299325761477</v>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -1800,7 +1896,9 @@
       <c r="F50" t="n">
         <v>4.064266447839691</v>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>4.917762401886026</v>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -1827,7 +1925,9 @@
       <c r="F51" t="n">
         <v>2.853652535552079</v>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>3.452919568018016</v>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -1854,7 +1954,9 @@
       <c r="F52" t="n">
         <v>3.015142398151962</v>
       </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>3.648322301763874</v>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -1881,7 +1983,9 @@
       <c r="F53" t="n">
         <v>7.307352174579282</v>
       </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>8.841896131240931</v>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -1908,7 +2012,9 @@
       <c r="F54" t="n">
         <v>3.01574982395332</v>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>3.649057286983517</v>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -1935,7 +2041,9 @@
       <c r="F55" t="n">
         <v>1.103584001518164</v>
       </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>1.335336641836979</v>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -1962,7 +2070,9 @@
       <c r="F56" t="n">
         <v>7.437719839383452</v>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>8.999641005653977</v>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -1989,7 +2099,9 @@
       <c r="F57" t="n">
         <v>2.957738620064409</v>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>3.578863730277934</v>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2016,7 +2128,9 @@
       <c r="F58" t="n">
         <v>2.98669407025139</v>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>3.613899825004182</v>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2043,7 +2157,9 @@
       <c r="F59" t="n">
         <v>6.775906763864698</v>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>8.198847184276284</v>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2070,7 +2186,9 @@
       <c r="F60" t="n">
         <v>3.724181798160204</v>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>4.506259975773848</v>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2097,7 +2215,9 @@
       <c r="F61" t="n">
         <v>7.139531592337086</v>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>8.638833226727874</v>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2122,7 +2242,9 @@
       <c r="F62" t="n">
         <v>9.776137817538096</v>
       </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>11.8291267592211</v>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2149,7 +2271,9 @@
       <c r="F63" t="n">
         <v>1.131452113930301</v>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>1.369057057855664</v>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2176,7 +2300,9 @@
       <c r="F64" t="n">
         <v>5.847067578119493</v>
       </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>7.074951769524586</v>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2203,7 +2329,9 @@
       <c r="F65" t="n">
         <v>7.461197892427045</v>
       </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>9.028049449836724</v>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2230,7 +2358,9 @@
       <c r="F66" t="n">
         <v>3.40308451570014</v>
       </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>4.117732263997169</v>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2257,7 +2387,9 @@
       <c r="F67" t="n">
         <v>2.391261244148905</v>
       </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>2.893426105420175</v>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2284,7 +2416,9 @@
       <c r="F68" t="n">
         <v>2.007916960245257</v>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>2.429579521896761</v>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2311,7 +2445,9 @@
       <c r="F69" t="n">
         <v>9.014850642196237</v>
       </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>10.90796927705745</v>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2338,7 +2474,9 @@
       <c r="F70" t="n">
         <v>4.51165019210343</v>
       </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>5.45909673244515</v>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2365,7 +2503,9 @@
       <c r="F71" t="n">
         <v>6.287236989987731</v>
       </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>7.607556757885154</v>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2392,7 +2532,9 @@
       <c r="F72" t="n">
         <v>1.21585693637547</v>
       </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>1.471186893014319</v>
+      </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2419,7 +2561,9 @@
       <c r="F73" t="n">
         <v>3.414860951466943</v>
       </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>4.131981751275</v>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2446,7 +2590,9 @@
       <c r="F74" t="n">
         <v>0.7540915872655884</v>
       </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>0.912450820591362</v>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2473,7 +2619,9 @@
       <c r="F75" t="n">
         <v>6.332895429483235</v>
       </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>7.662803469674714</v>
+      </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2500,7 +2648,9 @@
       <c r="F76" t="n">
         <v>9.891096174614626</v>
       </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>11.9682263712837</v>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2527,7 +2677,9 @@
       <c r="F77" t="n">
         <v>9.727727666198824</v>
       </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>11.77055047610058</v>
+      </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -2554,7 +2706,9 @@
       <c r="F78" t="n">
         <v>1.407201818847091</v>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>1.70271420080498</v>
+      </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -2581,7 +2735,9 @@
       <c r="F79" t="n">
         <v>9.0532131205113</v>
       </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>10.95438787581867</v>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -2608,7 +2764,9 @@
       <c r="F80" t="n">
         <v>2.830800951669011</v>
       </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>3.425269151519503</v>
+      </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -2635,7 +2793,9 @@
       <c r="F81" t="n">
         <v>5.81222779375704</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>7.032795630446018</v>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -2662,7 +2822,9 @@
       <c r="F82" t="n">
         <v>2.997846863207374</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>3.627394704480922</v>
+      </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -2689,7 +2851,9 @@
       <c r="F83" t="n">
         <v>9.109663898577061</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>11.02269331727824</v>
+      </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -2716,7 +2880,9 @@
       <c r="F84" t="n">
         <v>6.996779940882228</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>8.466103728467496</v>
+      </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -2743,7 +2909,9 @@
       <c r="F85" t="n">
         <v>4.65062049238104</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>5.627250795781058</v>
+      </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -2770,7 +2938,9 @@
       <c r="F86" t="n">
         <v>3.248022543873005</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>3.930107278086336</v>
+      </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -2797,7 +2967,9 @@
       <c r="F87" t="n">
         <v>1.683210805710946</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>2.036685074910245</v>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -2824,7 +2996,9 @@
       <c r="F88" t="n">
         <v>3.104338770052462</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>3.756249911763478</v>
+      </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -2851,7 +3025,9 @@
       <c r="F89" t="n">
         <v>7.572277344371817</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>9.162455586689898</v>
+      </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -2878,7 +3054,9 @@
       <c r="F90" t="n">
         <v>8.381653671144427</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>10.14180094208476</v>
+      </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -2905,7 +3083,9 @@
       <c r="F91" t="n">
         <v>5.985601195071611</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>7.242577446036649</v>
+      </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -2932,7 +3112,9 @@
       <c r="F92" t="n">
         <v>1.660851658657804</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>2.009630506975943</v>
+      </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -2959,7 +3141,9 @@
       <c r="F93" t="n">
         <v>2.22545513623472</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>2.692800714844011</v>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -2986,7 +3170,9 @@
       <c r="F94" t="n">
         <v>5.239994714522227</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>6.340393604571895</v>
+      </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3011,7 +3197,9 @@
       <c r="F95" t="n">
         <v>2.021288383814327</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>2.445758944415336</v>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3038,7 +3226,9 @@
       <c r="F96" t="n">
         <v>3.83988941214463</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>4.646266188695003</v>
+      </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3065,7 +3255,9 @@
       <c r="F97" t="n">
         <v>4.965746194166297</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>6.008552894941219</v>
+      </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3092,7 +3284,9 @@
       <c r="F98" t="n">
         <v>6.89619906184212</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>8.344400864828964</v>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3185,7 +3379,9 @@
       <c r="F2" t="n">
         <v>3.8756494758357</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>4.689535865761196</v>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
     </row>
@@ -3212,7 +3408,9 @@
       <c r="F3" t="n">
         <v>6.00697770621503</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>7.268443024520186</v>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -3239,7 +3437,9 @@
       <c r="F4" t="n">
         <v>3.360024285628592</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>4.065629385610596</v>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -3266,7 +3466,9 @@
       <c r="F5" t="n">
         <v>9.437935753912893</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>11.4199022622346</v>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -3293,7 +3495,9 @@
       <c r="F6" t="n">
         <v>1.138562693443437</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1.377660859066558</v>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -3320,7 +3524,9 @@
       <c r="F7" t="n">
         <v>5.6564670228092</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>6.844325097599132</v>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -3347,7 +3553,9 @@
       <c r="F8" t="n">
         <v>7.293874620040071</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>8.825588290248486</v>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -3374,7 +3582,9 @@
       <c r="F9" t="n">
         <v>2.677282792312118</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>3.239512178697663</v>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -3399,7 +3609,9 @@
       <c r="F10" t="n">
         <v>7.0891586183045</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>8.577881928148445</v>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -3426,7 +3638,9 @@
       <c r="F11" t="n">
         <v>9.121266677897546</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>11.03673268025603</v>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -3453,7 +3667,9 @@
       <c r="F12" t="n">
         <v>8.018990959358909</v>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>9.70297906082428</v>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -3480,7 +3696,9 @@
       <c r="F13" t="n">
         <v>5.438201889380893</v>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>6.58022428615088</v>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -3507,7 +3725,9 @@
       <c r="F14" t="n">
         <v>5.033886302953434</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>6.091002426573655</v>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -3534,7 +3754,9 @@
       <c r="F15" t="n">
         <v>2.954276134372609</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>3.574674122590856</v>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -3561,7 +3783,9 @@
       <c r="F16" t="n">
         <v>5.698227408793114</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>6.894855164639668</v>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -3586,7 +3810,9 @@
       <c r="F17" t="n">
         <v>8.291035613451101</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>10.03215309227583</v>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -3613,7 +3839,9 @@
       <c r="F18" t="n">
         <v>12.36927465884</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>14.9668223371964</v>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -3640,7 +3868,9 @@
       <c r="F19" t="n">
         <v>8.547591227207436</v>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>10.342585384921</v>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -3667,7 +3897,9 @@
       <c r="F20" t="n">
         <v>5.916479766949029</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>7.158940518008325</v>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -3694,7 +3926,9 @@
       <c r="F21" t="n">
         <v>9.9013403143194</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>11.98062178032647</v>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -3721,7 +3955,9 @@
       <c r="F22" t="n">
         <v>7.164745874947526</v>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>8.669342508686507</v>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -3748,7 +3984,9 @@
       <c r="F23" t="n">
         <v>1.484391928249877</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>1.796114233182352</v>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -3775,7 +4013,9 @@
       <c r="F24" t="n">
         <v>7.740408230871748</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>9.365893959354814</v>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -3802,7 +4042,9 @@
       <c r="F25" t="n">
         <v>6.842818800146445</v>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>8.279810748177198</v>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -3829,7 +4071,9 @@
       <c r="F26" t="n">
         <v>9.93755190947544</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>12.02443781046528</v>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -3856,7 +4100,9 @@
       <c r="F27" t="n">
         <v>3.987769488047227</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>4.825201080537144</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -3883,7 +4129,9 @@
       <c r="F28" t="n">
         <v>2.454937376472412</v>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>2.970474225531618</v>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -3910,7 +4158,9 @@
       <c r="F29" t="n">
         <v>1.063146702431752</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>1.28640750994242</v>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -3937,7 +4187,9 @@
       <c r="F30" t="n">
         <v>8.897825376649788</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>10.76636870574624</v>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -3964,7 +4216,9 @@
       <c r="F31" t="n">
         <v>3.27466917129673</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>3.962349697269043</v>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -3991,7 +4245,9 @@
       <c r="F32" t="n">
         <v>9.443936603129396</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>11.42716328978657</v>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -4018,7 +4274,9 @@
       <c r="F33" t="n">
         <v>8.809470410888117</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>10.65945919717462</v>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -4045,7 +4303,9 @@
       <c r="F34" t="n">
         <v>9.482402950004767</v>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>11.47370756950577</v>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -4072,7 +4332,9 @@
       <c r="F35" t="n">
         <v>9.923192115047963</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>12.00706245920803</v>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -4099,7 +4361,9 @@
       <c r="F36" t="n">
         <v>2.96730906838789</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>3.590443972749347</v>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -4126,7 +4390,9 @@
       <c r="F37" t="n">
         <v>5.2138537994778</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>6.308763097368137</v>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -4153,7 +4419,9 @@
       <c r="F38" t="n">
         <v>1.740266934731939</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>2.105722991025646</v>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -4180,7 +4448,9 @@
       <c r="F39" t="n">
         <v>6.525464618082547</v>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>7.895812187879882</v>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -4207,7 +4477,9 @@
       <c r="F40" t="n">
         <v>9.29152492537186</v>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>11.24274515969995</v>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -4234,7 +4506,9 @@
       <c r="F41" t="n">
         <v>9.190843378517298</v>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>11.12092048800593</v>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -4261,7 +4535,9 @@
       <c r="F42" t="n">
         <v>3.813013505356644</v>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>4.613746341481539</v>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -4288,7 +4564,9 @@
       <c r="F43" t="n">
         <v>1.55817907388744</v>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>1.885396679403802</v>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -4315,7 +4593,9 @@
       <c r="F44" t="n">
         <v>1.659038561520078</v>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>2.007436659439294</v>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -4342,7 +4622,9 @@
       <c r="F45" t="n">
         <v>1.609389773863237</v>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>1.947361626374516</v>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -4369,7 +4651,9 @@
       <c r="F46" t="n">
         <v>9.665207711683228</v>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>11.69490133113671</v>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -4396,7 +4680,9 @@
       <c r="F47" t="n">
         <v>7.451692341713619</v>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>9.016547733473478</v>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -4423,7 +4709,9 @@
       <c r="F48" t="n">
         <v>6.034375100413754</v>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>7.301593871500642</v>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -4450,7 +4738,9 @@
       <c r="F49" t="n">
         <v>5.692809360133452</v>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>6.888299325761477</v>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -4477,7 +4767,9 @@
       <c r="F50" t="n">
         <v>4.064266447839691</v>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>4.917762401886026</v>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -4504,7 +4796,9 @@
       <c r="F51" t="n">
         <v>2.853652535552079</v>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>3.452919568018016</v>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -4531,7 +4825,9 @@
       <c r="F52" t="n">
         <v>3.015142398151962</v>
       </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>3.648322301763874</v>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -4558,7 +4854,9 @@
       <c r="F53" t="n">
         <v>7.307352174579282</v>
       </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>8.841896131240931</v>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -4585,7 +4883,9 @@
       <c r="F54" t="n">
         <v>3.01574982395332</v>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>3.649057286983517</v>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -4612,7 +4912,9 @@
       <c r="F55" t="n">
         <v>1.103584001518164</v>
       </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>1.335336641836979</v>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -4639,7 +4941,9 @@
       <c r="F56" t="n">
         <v>7.437719839383452</v>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>8.999641005653977</v>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -4666,7 +4970,9 @@
       <c r="F57" t="n">
         <v>2.957738620064409</v>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>3.578863730277934</v>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -4693,7 +4999,9 @@
       <c r="F58" t="n">
         <v>2.98669407025139</v>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>3.613899825004182</v>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -4720,7 +5028,9 @@
       <c r="F59" t="n">
         <v>6.775906763864698</v>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>8.198847184276284</v>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -4747,7 +5057,9 @@
       <c r="F60" t="n">
         <v>3.724181798160204</v>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>4.506259975773848</v>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -4774,7 +5086,9 @@
       <c r="F61" t="n">
         <v>7.139531592337086</v>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>8.638833226727874</v>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -4799,7 +5113,9 @@
       <c r="F62" t="n">
         <v>9.776137817538096</v>
       </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>11.8291267592211</v>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -4826,7 +5142,9 @@
       <c r="F63" t="n">
         <v>1.131452113930301</v>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>1.369057057855664</v>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -4853,7 +5171,9 @@
       <c r="F64" t="n">
         <v>5.847067578119493</v>
       </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>7.074951769524586</v>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -4880,7 +5200,9 @@
       <c r="F65" t="n">
         <v>7.461197892427045</v>
       </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>9.028049449836724</v>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -4907,7 +5229,9 @@
       <c r="F66" t="n">
         <v>3.40308451570014</v>
       </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>4.117732263997169</v>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -4934,7 +5258,9 @@
       <c r="F67" t="n">
         <v>2.391261244148905</v>
       </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>2.893426105420175</v>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -4961,7 +5287,9 @@
       <c r="F68" t="n">
         <v>2.007916960245257</v>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>2.429579521896761</v>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -4988,7 +5316,9 @@
       <c r="F69" t="n">
         <v>9.014850642196237</v>
       </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>10.90796927705745</v>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -5015,7 +5345,9 @@
       <c r="F70" t="n">
         <v>4.51165019210343</v>
       </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>5.45909673244515</v>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -5042,7 +5374,9 @@
       <c r="F71" t="n">
         <v>6.287236989987731</v>
       </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>7.607556757885154</v>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -5069,7 +5403,9 @@
       <c r="F72" t="n">
         <v>1.21585693637547</v>
       </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>1.471186893014319</v>
+      </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -5096,7 +5432,9 @@
       <c r="F73" t="n">
         <v>3.414860951466943</v>
       </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>4.131981751275</v>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -5123,7 +5461,9 @@
       <c r="F74" t="n">
         <v>0.7540915872655884</v>
       </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>0.912450820591362</v>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -5150,7 +5490,9 @@
       <c r="F75" t="n">
         <v>6.332895429483235</v>
       </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>7.662803469674714</v>
+      </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -5177,7 +5519,9 @@
       <c r="F76" t="n">
         <v>9.891096174614626</v>
       </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>11.9682263712837</v>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -5204,7 +5548,9 @@
       <c r="F77" t="n">
         <v>9.727727666198824</v>
       </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>11.77055047610058</v>
+      </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -5231,7 +5577,9 @@
       <c r="F78" t="n">
         <v>1.407201818847091</v>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>1.70271420080498</v>
+      </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -5258,7 +5606,9 @@
       <c r="F79" t="n">
         <v>9.0532131205113</v>
       </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>10.95438787581867</v>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -5285,7 +5635,9 @@
       <c r="F80" t="n">
         <v>2.830800951669011</v>
       </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>3.425269151519503</v>
+      </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -5312,7 +5664,9 @@
       <c r="F81" t="n">
         <v>5.81222779375704</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>7.032795630446018</v>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -5339,7 +5693,9 @@
       <c r="F82" t="n">
         <v>2.997846863207374</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>3.627394704480922</v>
+      </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -5366,7 +5722,9 @@
       <c r="F83" t="n">
         <v>9.109663898577061</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>11.02269331727824</v>
+      </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -5393,7 +5751,9 @@
       <c r="F84" t="n">
         <v>6.996779940882228</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>8.466103728467496</v>
+      </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -5420,7 +5780,9 @@
       <c r="F85" t="n">
         <v>4.65062049238104</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>5.627250795781058</v>
+      </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -5447,7 +5809,9 @@
       <c r="F86" t="n">
         <v>3.248022543873005</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>3.930107278086336</v>
+      </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -5474,7 +5838,9 @@
       <c r="F87" t="n">
         <v>1.683210805710946</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>2.036685074910245</v>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -5501,7 +5867,9 @@
       <c r="F88" t="n">
         <v>3.104338770052462</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>3.756249911763478</v>
+      </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -5528,7 +5896,9 @@
       <c r="F89" t="n">
         <v>7.572277344371817</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>9.162455586689898</v>
+      </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -5555,7 +5925,9 @@
       <c r="F90" t="n">
         <v>8.381653671144427</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>10.14180094208476</v>
+      </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -5582,7 +5954,9 @@
       <c r="F91" t="n">
         <v>5.985601195071611</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>7.242577446036649</v>
+      </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -5609,7 +5983,9 @@
       <c r="F92" t="n">
         <v>1.660851658657804</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>2.009630506975943</v>
+      </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -5636,7 +6012,9 @@
       <c r="F93" t="n">
         <v>2.22545513623472</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>2.692800714844011</v>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -5663,7 +6041,9 @@
       <c r="F94" t="n">
         <v>5.239994714522227</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>6.340393604571895</v>
+      </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -5688,7 +6068,9 @@
       <c r="F95" t="n">
         <v>2.021288383814327</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>2.445758944415336</v>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -5715,7 +6097,9 @@
       <c r="F96" t="n">
         <v>3.83988941214463</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>4.646266188695003</v>
+      </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -5742,7 +6126,9 @@
       <c r="F97" t="n">
         <v>4.965746194166297</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>6.008552894941219</v>
+      </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -5769,7 +6155,9 @@
       <c r="F98" t="n">
         <v>6.89619906184212</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>8.344400864828964</v>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -5783,7 +6171,7 @@
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>636.4352283254818</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
